--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plg-Plgrkt.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plg-Plgrkt.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.50348366666667</v>
+        <v>20.655921</v>
       </c>
       <c r="N2">
-        <v>67.510451</v>
+        <v>61.967763</v>
       </c>
       <c r="O2">
-        <v>0.405073676205299</v>
+        <v>0.3846075519180752</v>
       </c>
       <c r="P2">
-        <v>0.405073676205299</v>
+        <v>0.3846075519180752</v>
       </c>
       <c r="Q2">
-        <v>0.3997518838546666</v>
+        <v>0.3669317806439999</v>
       </c>
       <c r="R2">
-        <v>3.597766954692</v>
+        <v>3.302386025796</v>
       </c>
       <c r="S2">
-        <v>0.405073676205299</v>
+        <v>0.3846075519180752</v>
       </c>
       <c r="T2">
-        <v>0.405073676205299</v>
+        <v>0.3846075519180752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>64.02623699999999</v>
       </c>
       <c r="O3">
-        <v>0.3841678260330646</v>
+        <v>0.3973836246290912</v>
       </c>
       <c r="P3">
-        <v>0.3841678260330646</v>
+        <v>0.3973836246290912</v>
       </c>
       <c r="Q3">
         <v>0.379120691356</v>
@@ -632,10 +632,10 @@
         <v>3.412086222204</v>
       </c>
       <c r="S3">
-        <v>0.3841678260330646</v>
+        <v>0.3973836246290912</v>
       </c>
       <c r="T3">
-        <v>0.3841678260330646</v>
+        <v>0.3973836246290912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.70848833333334</v>
+        <v>11.70848833333333</v>
       </c>
       <c r="N4">
-        <v>35.12546500000001</v>
+        <v>35.125465</v>
       </c>
       <c r="O4">
-        <v>0.2107584977616364</v>
+        <v>0.2180088234528336</v>
       </c>
       <c r="P4">
-        <v>0.2107584977616364</v>
+        <v>0.2180088234528336</v>
       </c>
       <c r="Q4">
         <v>0.2079895867533333</v>
@@ -694,10 +694,10 @@
         <v>1.87190628078</v>
       </c>
       <c r="S4">
-        <v>0.2107584977616364</v>
+        <v>0.2180088234528336</v>
       </c>
       <c r="T4">
-        <v>0.2107584977616364</v>
+        <v>0.2180088234528336</v>
       </c>
     </row>
   </sheetData>
